--- a/data/pca/factorExposure/factorExposure_2018-10-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0481658748152889</v>
+        <v>0.0384375192511709</v>
       </c>
       <c r="C2">
-        <v>0.05288045542393868</v>
+        <v>0.004148225371908396</v>
       </c>
       <c r="D2">
-        <v>-0.04535676250101088</v>
+        <v>0.01577045323814455</v>
       </c>
       <c r="E2">
-        <v>-0.04927273898327138</v>
+        <v>-0.01691997823640815</v>
       </c>
       <c r="F2">
-        <v>0.1426930581075764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.02895196901063979</v>
+      </c>
+      <c r="G2">
+        <v>-0.08343728156390837</v>
+      </c>
+      <c r="H2">
+        <v>0.02547737323218322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1533740060504888</v>
+        <v>0.09295792426857591</v>
       </c>
       <c r="C3">
-        <v>0.008393131391264779</v>
+        <v>-0.03955448681689025</v>
       </c>
       <c r="D3">
-        <v>-0.06192660224459948</v>
+        <v>0.03792171481057249</v>
       </c>
       <c r="E3">
-        <v>-0.09135622936042781</v>
+        <v>-0.01225941751574195</v>
       </c>
       <c r="F3">
-        <v>0.3775874626651251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.0003021544308715047</v>
+      </c>
+      <c r="G3">
+        <v>-0.2860588862554659</v>
+      </c>
+      <c r="H3">
+        <v>0.05300981510677542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05714768182418722</v>
+        <v>0.05000431859269931</v>
       </c>
       <c r="C4">
-        <v>0.03337032158657046</v>
+        <v>-0.008120336369276933</v>
       </c>
       <c r="D4">
-        <v>-0.02076185012676509</v>
+        <v>0.03379396036959254</v>
       </c>
       <c r="E4">
-        <v>-0.08302977518052765</v>
+        <v>0.01751338913885831</v>
       </c>
       <c r="F4">
-        <v>0.06341308383568987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06521116019209229</v>
+      </c>
+      <c r="G4">
+        <v>-0.0431321597153679</v>
+      </c>
+      <c r="H4">
+        <v>0.03079605365953568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009245874168477899</v>
+        <v>0.03115196512926691</v>
       </c>
       <c r="C6">
-        <v>0.001276766061982975</v>
+        <v>-0.004327157137708595</v>
       </c>
       <c r="D6">
-        <v>-0.009308630307541713</v>
+        <v>0.03123496367749413</v>
       </c>
       <c r="E6">
-        <v>-0.001909983947498347</v>
+        <v>0.003974573380171725</v>
       </c>
       <c r="F6">
-        <v>0.01004702763540524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03279033256403598</v>
+      </c>
+      <c r="G6">
+        <v>-0.003739217438612702</v>
+      </c>
+      <c r="H6">
+        <v>0.05132248570097319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03037708389003704</v>
+        <v>0.02442069570695279</v>
       </c>
       <c r="C7">
-        <v>0.01615853054292016</v>
+        <v>-0.004238276235390286</v>
       </c>
       <c r="D7">
-        <v>-0.03635693707943722</v>
+        <v>0.0204892247437537</v>
       </c>
       <c r="E7">
-        <v>-0.03731238837618269</v>
+        <v>0.03473084515339998</v>
       </c>
       <c r="F7">
-        <v>0.06619736396502238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02666565195012805</v>
+      </c>
+      <c r="G7">
+        <v>-0.03506262393042267</v>
+      </c>
+      <c r="H7">
+        <v>0.02095509416851064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01449634043555713</v>
+        <v>0.004591680427340829</v>
       </c>
       <c r="C8">
-        <v>0.006297528816280631</v>
+        <v>-0.002889102694344186</v>
       </c>
       <c r="D8">
-        <v>-0.01272096111750044</v>
+        <v>0.02153797767098602</v>
       </c>
       <c r="E8">
-        <v>-0.07468874452041827</v>
+        <v>0.01122783021314994</v>
       </c>
       <c r="F8">
-        <v>0.09466062617218088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02861537566952613</v>
+      </c>
+      <c r="G8">
+        <v>-0.05414911313999194</v>
+      </c>
+      <c r="H8">
+        <v>0.01286445722347459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04539648408791239</v>
+        <v>0.04012084781014541</v>
       </c>
       <c r="C9">
-        <v>0.02680773026721873</v>
+        <v>-0.01012800442130093</v>
       </c>
       <c r="D9">
-        <v>-0.004197959937195544</v>
+        <v>0.02855073851973678</v>
       </c>
       <c r="E9">
-        <v>-0.08647914629615981</v>
+        <v>0.01740233969219883</v>
       </c>
       <c r="F9">
-        <v>0.07022522610007355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0429724594850673</v>
+      </c>
+      <c r="G9">
+        <v>-0.06141684271448751</v>
+      </c>
+      <c r="H9">
+        <v>0.03473904697922865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04523351663468534</v>
+        <v>0.06716516209411316</v>
       </c>
       <c r="C10">
-        <v>0.06041233112414477</v>
+        <v>-0.03553968955395275</v>
       </c>
       <c r="D10">
-        <v>0.05289899883112992</v>
+        <v>-0.1580159066390443</v>
       </c>
       <c r="E10">
-        <v>0.1274307703164869</v>
+        <v>-0.01670021334056052</v>
       </c>
       <c r="F10">
-        <v>0.07955780230820811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.07813412226422468</v>
+      </c>
+      <c r="G10">
+        <v>-0.04399302618227922</v>
+      </c>
+      <c r="H10">
+        <v>0.01078207896467166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03519876536013403</v>
+        <v>0.02378112172012977</v>
       </c>
       <c r="C11">
-        <v>0.009057038217538926</v>
+        <v>-0.01532344232492457</v>
       </c>
       <c r="D11">
-        <v>-0.02200825213941601</v>
+        <v>0.03411508642796423</v>
       </c>
       <c r="E11">
-        <v>-0.03547892436399146</v>
+        <v>-0.004821673399515514</v>
       </c>
       <c r="F11">
-        <v>0.03332237882512933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02448736173400632</v>
+      </c>
+      <c r="G11">
+        <v>-0.03138980123288503</v>
+      </c>
+      <c r="H11">
+        <v>0.03033715738643952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04205041493742019</v>
+        <v>0.03265777380538223</v>
       </c>
       <c r="C12">
-        <v>0.009118147815156035</v>
+        <v>-0.01537438358829824</v>
       </c>
       <c r="D12">
-        <v>-0.014432481868343</v>
+        <v>0.03387812205090648</v>
       </c>
       <c r="E12">
-        <v>-0.04902710046850788</v>
+        <v>0.005542162164107819</v>
       </c>
       <c r="F12">
-        <v>0.01899450601916266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02696402905374124</v>
+      </c>
+      <c r="G12">
+        <v>-0.005672539148627245</v>
+      </c>
+      <c r="H12">
+        <v>0.01622013945970577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02741035616540578</v>
+        <v>0.03089245806993795</v>
       </c>
       <c r="C13">
-        <v>0.01951980584594059</v>
+        <v>0.005828009601003454</v>
       </c>
       <c r="D13">
-        <v>-0.04001519157269654</v>
+        <v>0.006492961090462595</v>
       </c>
       <c r="E13">
-        <v>-0.02398642915028642</v>
+        <v>-0.01670531661918455</v>
       </c>
       <c r="F13">
-        <v>0.09173502303774049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02094116561906634</v>
+      </c>
+      <c r="G13">
+        <v>-0.06433567912114317</v>
+      </c>
+      <c r="H13">
+        <v>0.03044473475855907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01622988633981014</v>
+        <v>0.01793307448969113</v>
       </c>
       <c r="C14">
-        <v>0.02015797373641206</v>
+        <v>-0.00497808960066338</v>
       </c>
       <c r="D14">
-        <v>-0.01504647274367269</v>
+        <v>0.005998448975341664</v>
       </c>
       <c r="E14">
-        <v>-0.04432257691923006</v>
+        <v>0.006404692743104301</v>
       </c>
       <c r="F14">
-        <v>0.06259022375806619</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02883424629248656</v>
+      </c>
+      <c r="G14">
+        <v>-0.04144989047960505</v>
+      </c>
+      <c r="H14">
+        <v>-0.01759286049556346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02750637490604776</v>
+        <v>0.024181592600317</v>
       </c>
       <c r="C16">
-        <v>0.01035598443067116</v>
+        <v>-0.0154790939868186</v>
       </c>
       <c r="D16">
-        <v>-0.01976962967155283</v>
+        <v>0.03236120961417676</v>
       </c>
       <c r="E16">
-        <v>-0.0343507435001706</v>
+        <v>-8.144122245259621e-05</v>
       </c>
       <c r="F16">
-        <v>0.03337197749799791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02552365606223055</v>
+      </c>
+      <c r="G16">
+        <v>-0.02358050185490769</v>
+      </c>
+      <c r="H16">
+        <v>0.02304256120817325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04148053568164012</v>
+        <v>0.03419117211474464</v>
       </c>
       <c r="C19">
-        <v>0.01069576229333816</v>
+        <v>-0.008360027729669584</v>
       </c>
       <c r="D19">
-        <v>-0.03402312265981365</v>
+        <v>0.01622003630461649</v>
       </c>
       <c r="E19">
-        <v>-0.04300883719648543</v>
+        <v>-0.004258772574051745</v>
       </c>
       <c r="F19">
-        <v>0.1019768499072699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03579936324569482</v>
+      </c>
+      <c r="G19">
+        <v>-0.06755559752212269</v>
+      </c>
+      <c r="H19">
+        <v>0.0449018790899738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.004444751959914606</v>
+        <v>0.01140862406488635</v>
       </c>
       <c r="C20">
-        <v>0.01282916719059022</v>
+        <v>0.004173720362500522</v>
       </c>
       <c r="D20">
-        <v>-0.02091933808565222</v>
+        <v>0.01484636938693809</v>
       </c>
       <c r="E20">
-        <v>-0.05150950844905751</v>
+        <v>0.001696148769566206</v>
       </c>
       <c r="F20">
-        <v>0.066247927706236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01947001854749538</v>
+      </c>
+      <c r="G20">
+        <v>-0.05117353093976937</v>
+      </c>
+      <c r="H20">
+        <v>-0.008665625550087569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002185675830929907</v>
+        <v>0.02318660563616109</v>
       </c>
       <c r="C21">
-        <v>-0.0008884124560812889</v>
+        <v>0.0009825463160701581</v>
       </c>
       <c r="D21">
-        <v>-0.01930204046187012</v>
+        <v>0.00121083282405117</v>
       </c>
       <c r="E21">
-        <v>-0.03510274168631497</v>
+        <v>0.0104357331321405</v>
       </c>
       <c r="F21">
-        <v>0.0891091480020109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01011020272661979</v>
+      </c>
+      <c r="G21">
+        <v>-0.05753181262083262</v>
+      </c>
+      <c r="H21">
+        <v>0.01514793990950912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03001237842777839</v>
+        <v>0.02444700247074817</v>
       </c>
       <c r="C24">
-        <v>0.008698209023259278</v>
+        <v>-0.01038484313686154</v>
       </c>
       <c r="D24">
-        <v>-0.0170231733499384</v>
+        <v>0.03138093422808587</v>
       </c>
       <c r="E24">
-        <v>-0.03291786824845051</v>
+        <v>8.550250891270974e-05</v>
       </c>
       <c r="F24">
-        <v>0.03665072836836728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02132354556405791</v>
+      </c>
+      <c r="G24">
+        <v>-0.02585958033612481</v>
+      </c>
+      <c r="H24">
+        <v>0.03056871140157775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03192550378183976</v>
+        <v>0.03442393987303897</v>
       </c>
       <c r="C25">
-        <v>0.007953468054601703</v>
+        <v>-0.0106304542765274</v>
       </c>
       <c r="D25">
-        <v>-0.01497754194804158</v>
+        <v>0.02489145653931032</v>
       </c>
       <c r="E25">
-        <v>-0.03758589754703524</v>
+        <v>0.0006394741122611835</v>
       </c>
       <c r="F25">
-        <v>0.03824170183480598</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.0263632287401969</v>
+      </c>
+      <c r="G25">
+        <v>-0.03113960603090307</v>
+      </c>
+      <c r="H25">
+        <v>0.03326639451065574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02109996838093938</v>
+        <v>0.02208228377469663</v>
       </c>
       <c r="C26">
-        <v>-0.002191256551143618</v>
+        <v>0.01337101440561651</v>
       </c>
       <c r="D26">
-        <v>-0.04454857766418462</v>
+        <v>0.01224373368701005</v>
       </c>
       <c r="E26">
-        <v>-0.04061620458305604</v>
+        <v>-0.006432099483595232</v>
       </c>
       <c r="F26">
-        <v>0.05708652608598844</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.007911439358859807</v>
+      </c>
+      <c r="G26">
+        <v>-0.03761554078460469</v>
+      </c>
+      <c r="H26">
+        <v>0.003799784882965962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07751018289319488</v>
+        <v>0.03434253630810398</v>
       </c>
       <c r="C27">
-        <v>0.05001841381015829</v>
+        <v>-0.02205204760348354</v>
       </c>
       <c r="D27">
-        <v>-0.009247834561352482</v>
+        <v>0.007110686402239083</v>
       </c>
       <c r="E27">
-        <v>-0.05724142895704974</v>
+        <v>0.002319583842903361</v>
       </c>
       <c r="F27">
-        <v>0.06018712764172347</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02802568646234582</v>
+      </c>
+      <c r="G27">
+        <v>-0.02876479737932523</v>
+      </c>
+      <c r="H27">
+        <v>0.002123922670998069</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06273047295589849</v>
+        <v>0.1045988556656474</v>
       </c>
       <c r="C28">
-        <v>0.07721212998423833</v>
+        <v>-0.04064966617293676</v>
       </c>
       <c r="D28">
-        <v>0.090440982638722</v>
+        <v>-0.2329063660159885</v>
       </c>
       <c r="E28">
-        <v>0.1903377031423532</v>
+        <v>-0.01769368097470082</v>
       </c>
       <c r="F28">
-        <v>0.08073781930488667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1112842850722169</v>
+      </c>
+      <c r="G28">
+        <v>-0.02661539201073655</v>
+      </c>
+      <c r="H28">
+        <v>-0.003591235096146283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02268664748827713</v>
+        <v>0.02207951273066685</v>
       </c>
       <c r="C29">
-        <v>0.01956125060184107</v>
+        <v>-0.007710141039258211</v>
       </c>
       <c r="D29">
-        <v>-0.01342369966709537</v>
+        <v>0.007768703108023725</v>
       </c>
       <c r="E29">
-        <v>-0.05884704878405523</v>
+        <v>0.007122328184467375</v>
       </c>
       <c r="F29">
-        <v>0.05322266986221148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03060333789713587</v>
+      </c>
+      <c r="G29">
+        <v>-0.03605068099367122</v>
+      </c>
+      <c r="H29">
+        <v>-0.01490763587765884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08808500450255664</v>
+        <v>0.06387544375374994</v>
       </c>
       <c r="C30">
-        <v>0.05375423531183977</v>
+        <v>-0.01443459739157071</v>
       </c>
       <c r="D30">
-        <v>-0.05429586138835792</v>
+        <v>0.05153452611220349</v>
       </c>
       <c r="E30">
-        <v>-0.08002414280553609</v>
+        <v>-0.0410123022954491</v>
       </c>
       <c r="F30">
-        <v>0.07730452260828646</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07220064684818814</v>
+      </c>
+      <c r="G30">
+        <v>-0.0695627070514252</v>
+      </c>
+      <c r="H30">
+        <v>0.05003921210256269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05778956780997339</v>
+        <v>0.05187773199364147</v>
       </c>
       <c r="C31">
-        <v>0.01923102535348889</v>
+        <v>-0.02685365183368786</v>
       </c>
       <c r="D31">
-        <v>-0.04970735579882378</v>
+        <v>0.01936021434840786</v>
       </c>
       <c r="E31">
-        <v>-0.02220473032329922</v>
+        <v>-0.01143652053325682</v>
       </c>
       <c r="F31">
-        <v>0.03230101931503005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02145009515141101</v>
+      </c>
+      <c r="G31">
+        <v>-0.01612642141654235</v>
+      </c>
+      <c r="H31">
+        <v>-0.01403907583122779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02024438030421681</v>
+        <v>0.008573967276469521</v>
       </c>
       <c r="C32">
-        <v>0.0189210945018452</v>
+        <v>-0.01721196381092927</v>
       </c>
       <c r="D32">
-        <v>-0.01875346066091529</v>
+        <v>0.005767727148943134</v>
       </c>
       <c r="E32">
-        <v>-0.08875094345995102</v>
+        <v>0.01743118332693749</v>
       </c>
       <c r="F32">
-        <v>0.07690059158396906</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04985098339543295</v>
+      </c>
+      <c r="G32">
+        <v>-0.04685693420265242</v>
+      </c>
+      <c r="H32">
+        <v>0.04338240276398321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05358569543427785</v>
+        <v>0.04069259182656033</v>
       </c>
       <c r="C33">
-        <v>0.001252381786687252</v>
+        <v>-0.01055666373130679</v>
       </c>
       <c r="D33">
-        <v>-0.05561831176886647</v>
+        <v>0.0336684016421111</v>
       </c>
       <c r="E33">
-        <v>-0.05570473542792227</v>
+        <v>-0.02382907015712315</v>
       </c>
       <c r="F33">
-        <v>0.08780365863084698</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01531494461342232</v>
+      </c>
+      <c r="G33">
+        <v>-0.05875642876646184</v>
+      </c>
+      <c r="H33">
+        <v>0.02309245068433205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03215440289012867</v>
+        <v>0.02559939924112064</v>
       </c>
       <c r="C34">
-        <v>0.01534369775317299</v>
+        <v>-0.02416545101594949</v>
       </c>
       <c r="D34">
-        <v>-0.02010600523596549</v>
+        <v>0.02968866787565713</v>
       </c>
       <c r="E34">
-        <v>-0.0411900175515796</v>
+        <v>0.004304260118418828</v>
       </c>
       <c r="F34">
-        <v>0.03871727491853361</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02801701034384863</v>
+      </c>
+      <c r="G34">
+        <v>-0.02478888655957825</v>
+      </c>
+      <c r="H34">
+        <v>0.02950427813011459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01280193102317559</v>
+        <v>0.01836366666732996</v>
       </c>
       <c r="C36">
-        <v>0.007932494555126339</v>
+        <v>0.001038289830816027</v>
       </c>
       <c r="D36">
-        <v>-0.005990960611247962</v>
+        <v>5.679582596372266e-06</v>
       </c>
       <c r="E36">
-        <v>-0.02836814228098497</v>
+        <v>0.002891463856628742</v>
       </c>
       <c r="F36">
-        <v>0.03120102179095257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.007231684659342541</v>
+      </c>
+      <c r="G36">
+        <v>-0.02232580989605444</v>
+      </c>
+      <c r="H36">
+        <v>-0.0007412189176644169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006877338606776188</v>
+        <v>0.01337721437365216</v>
       </c>
       <c r="C38">
-        <v>-0.002859070194039495</v>
+        <v>-0.01790837700053834</v>
       </c>
       <c r="D38">
-        <v>0.0131351449688947</v>
+        <v>0.0007898476841701851</v>
       </c>
       <c r="E38">
-        <v>0.0001795512804696802</v>
+        <v>0.006069593731878648</v>
       </c>
       <c r="F38">
-        <v>0.01664703967344859</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.009615944504247997</v>
+      </c>
+      <c r="G38">
+        <v>-0.02800772832476931</v>
+      </c>
+      <c r="H38">
+        <v>0.02262902854863981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04069718680738602</v>
+        <v>0.02905176003538314</v>
       </c>
       <c r="C39">
-        <v>0.02037139530819558</v>
+        <v>-0.01146348506503758</v>
       </c>
       <c r="D39">
-        <v>-0.037659654760297</v>
+        <v>0.06674173291198536</v>
       </c>
       <c r="E39">
-        <v>-0.03883008841123363</v>
+        <v>-0.004511857653135705</v>
       </c>
       <c r="F39">
-        <v>0.0406922115929358</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04616525412034565</v>
+      </c>
+      <c r="G39">
+        <v>-0.04557435113947921</v>
+      </c>
+      <c r="H39">
+        <v>0.05249566435282193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03620247836015314</v>
+        <v>0.03385604876193292</v>
       </c>
       <c r="C40">
-        <v>0.03609948231586735</v>
+        <v>-0.01024716406607428</v>
       </c>
       <c r="D40">
-        <v>-0.06398376771696324</v>
+        <v>0.02657497795987136</v>
       </c>
       <c r="E40">
-        <v>-0.04457958961032398</v>
+        <v>-0.02128238326690531</v>
       </c>
       <c r="F40">
-        <v>0.08404399392156114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03891833250834253</v>
+      </c>
+      <c r="G40">
+        <v>-0.04100094808925539</v>
+      </c>
+      <c r="H40">
+        <v>0.05302681151275261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.000949365301323483</v>
+        <v>0.007570576265676135</v>
       </c>
       <c r="C41">
-        <v>-0.007564566590346141</v>
+        <v>1.943150758483396e-05</v>
       </c>
       <c r="D41">
-        <v>-0.01327719038364812</v>
+        <v>-0.004202866631787299</v>
       </c>
       <c r="E41">
-        <v>-0.02107473727342795</v>
+        <v>-0.001413392083347148</v>
       </c>
       <c r="F41">
-        <v>0.02303191976536441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.002388188179907367</v>
+      </c>
+      <c r="G41">
+        <v>-0.01019991199104035</v>
+      </c>
+      <c r="H41">
+        <v>-0.01661075698963115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3838979418974792</v>
+        <v>0.2423813329810843</v>
       </c>
       <c r="C42">
-        <v>-0.8694736140331932</v>
+        <v>0.04549946212468947</v>
       </c>
       <c r="D42">
-        <v>-0.1438131911480527</v>
+        <v>0.535961755670039</v>
       </c>
       <c r="E42">
-        <v>0.2056583076305787</v>
+        <v>-0.1052405107662521</v>
       </c>
       <c r="F42">
-        <v>-0.02448026925676573</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7840082096863507</v>
+      </c>
+      <c r="G42">
+        <v>0.08418043128531412</v>
+      </c>
+      <c r="H42">
+        <v>0.02779942279514778</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.008033559553004386</v>
+        <v>0.005042285980487428</v>
       </c>
       <c r="C43">
-        <v>-0.005320546160656188</v>
+        <v>0.002991633835140868</v>
       </c>
       <c r="D43">
-        <v>-0.01992511639496518</v>
+        <v>-0.005345277494421976</v>
       </c>
       <c r="E43">
-        <v>-0.02251789244835669</v>
+        <v>-0.005474586214917055</v>
       </c>
       <c r="F43">
-        <v>0.03572997683185248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.007172403642580734</v>
+      </c>
+      <c r="G43">
+        <v>-0.01747212672340263</v>
+      </c>
+      <c r="H43">
+        <v>-0.01059438032915087</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02469788484715106</v>
+        <v>0.01431571380147918</v>
       </c>
       <c r="C44">
-        <v>0.004740503622238776</v>
+        <v>-0.003291250591667569</v>
       </c>
       <c r="D44">
-        <v>-0.03588640593745294</v>
+        <v>0.0278879239379743</v>
       </c>
       <c r="E44">
-        <v>-0.05394833003259795</v>
+        <v>0.001330934398304205</v>
       </c>
       <c r="F44">
-        <v>0.1892342321367798</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.007051956374679026</v>
+      </c>
+      <c r="G44">
+        <v>-0.08932313658498665</v>
+      </c>
+      <c r="H44">
+        <v>0.02102459513524109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01944484201109646</v>
+        <v>0.02259311673280489</v>
       </c>
       <c r="C46">
-        <v>0.01705440301299745</v>
+        <v>-0.003843793826514538</v>
       </c>
       <c r="D46">
-        <v>-0.0328106268060574</v>
+        <v>0.01359342845199725</v>
       </c>
       <c r="E46">
-        <v>-0.05786793636032476</v>
+        <v>-0.005404090412255457</v>
       </c>
       <c r="F46">
-        <v>0.05365075295803067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03539029649224634</v>
+      </c>
+      <c r="G46">
+        <v>-0.05011858251511931</v>
+      </c>
+      <c r="H46">
+        <v>-0.01296224808978946</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09502518858787262</v>
+        <v>0.07230065971564263</v>
       </c>
       <c r="C47">
-        <v>0.03426011558032847</v>
+        <v>-0.04817403651637774</v>
       </c>
       <c r="D47">
-        <v>-0.03417253426921504</v>
+        <v>0.02295981970777551</v>
       </c>
       <c r="E47">
-        <v>-0.0433189733670988</v>
+        <v>-0.008631326143705858</v>
       </c>
       <c r="F47">
-        <v>-0.0005403967697714295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.03227352383637314</v>
+      </c>
+      <c r="G47">
+        <v>0.0143206962662342</v>
+      </c>
+      <c r="H47">
+        <v>-0.02826490579738065</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01113244135770248</v>
+        <v>0.01730539317974909</v>
       </c>
       <c r="C48">
-        <v>0.004945830275278938</v>
+        <v>-0.009370463181316332</v>
       </c>
       <c r="D48">
-        <v>-0.0226078513935967</v>
+        <v>0.007721728455757733</v>
       </c>
       <c r="E48">
-        <v>-0.04296650885294864</v>
+        <v>-0.001459269255262017</v>
       </c>
       <c r="F48">
-        <v>0.04842292162882967</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01303886489745797</v>
+      </c>
+      <c r="G48">
+        <v>-0.02862558363713154</v>
+      </c>
+      <c r="H48">
+        <v>0.005432421507683714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08693829999887406</v>
+        <v>0.06676209457169321</v>
       </c>
       <c r="C50">
-        <v>0.01975760366099315</v>
+        <v>-0.04165083734831833</v>
       </c>
       <c r="D50">
-        <v>-0.04605141230432139</v>
+        <v>0.0374231359898976</v>
       </c>
       <c r="E50">
-        <v>-0.04259851306310695</v>
+        <v>0.005108243899215332</v>
       </c>
       <c r="F50">
-        <v>0.01340497738285457</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02943092394593123</v>
+      </c>
+      <c r="G50">
+        <v>-0.01528355394258246</v>
+      </c>
+      <c r="H50">
+        <v>-0.02317619082935772</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04592228274089286</v>
+        <v>0.02838788037640689</v>
       </c>
       <c r="C51">
-        <v>0.0006848317358965584</v>
+        <v>-0.007302460019007236</v>
       </c>
       <c r="D51">
-        <v>-0.04972271171456535</v>
+        <v>-0.001308366636861065</v>
       </c>
       <c r="E51">
-        <v>-0.009527284461028022</v>
+        <v>-0.0143803449412364</v>
       </c>
       <c r="F51">
-        <v>0.1627328172785995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01495233310290349</v>
+      </c>
+      <c r="G51">
+        <v>-0.0890964319742384</v>
+      </c>
+      <c r="H51">
+        <v>0.02999839773197032</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1091081269863132</v>
+        <v>0.09486327026667903</v>
       </c>
       <c r="C53">
-        <v>0.04214861729149584</v>
+        <v>-0.06239546905046688</v>
       </c>
       <c r="D53">
-        <v>-0.06029806299062977</v>
+        <v>0.05194069010864705</v>
       </c>
       <c r="E53">
-        <v>-0.06335439583236022</v>
+        <v>-0.007753780391333809</v>
       </c>
       <c r="F53">
-        <v>-0.06142661720760542</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06301907421412058</v>
+      </c>
+      <c r="G53">
+        <v>0.05868900174156124</v>
+      </c>
+      <c r="H53">
+        <v>-0.03550310626860511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02436370136241307</v>
+        <v>0.02242530425461906</v>
       </c>
       <c r="C54">
-        <v>0.03604877037962937</v>
+        <v>-0.01815040137292148</v>
       </c>
       <c r="D54">
-        <v>-0.0132706339955702</v>
+        <v>-0.01938927400950259</v>
       </c>
       <c r="E54">
-        <v>-0.0367226422397994</v>
+        <v>0.00161996453516385</v>
       </c>
       <c r="F54">
-        <v>0.07589099849720035</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01557466155112328</v>
+      </c>
+      <c r="G54">
+        <v>-0.04579038623367035</v>
+      </c>
+      <c r="H54">
+        <v>-0.02147037336986831</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1040358228136841</v>
+        <v>0.08236243956807748</v>
       </c>
       <c r="C55">
-        <v>0.03055310644651251</v>
+        <v>-0.05482437540395459</v>
       </c>
       <c r="D55">
-        <v>-0.008996820695350093</v>
+        <v>0.04579249302759066</v>
       </c>
       <c r="E55">
-        <v>-0.05701863260769082</v>
+        <v>0.005223868400663558</v>
       </c>
       <c r="F55">
-        <v>-0.05824686874644595</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.0486312626451127</v>
+      </c>
+      <c r="G55">
+        <v>0.03890453551829471</v>
+      </c>
+      <c r="H55">
+        <v>-0.05093021446552931</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1453713584815696</v>
+        <v>0.1230545230950498</v>
       </c>
       <c r="C56">
-        <v>0.07043639937833275</v>
+        <v>-0.08788104807025829</v>
       </c>
       <c r="D56">
-        <v>-0.03735318538175414</v>
+        <v>0.06049025964162038</v>
       </c>
       <c r="E56">
-        <v>-0.0730379139540213</v>
+        <v>-0.002493490202325281</v>
       </c>
       <c r="F56">
-        <v>-0.1587507305661387</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08467526403713078</v>
+      </c>
+      <c r="G56">
+        <v>0.1028345146327143</v>
+      </c>
+      <c r="H56">
+        <v>-0.02668355900702972</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0466722887811915</v>
+        <v>0.044475813001744</v>
       </c>
       <c r="C57">
-        <v>0.01545935143013296</v>
+        <v>-0.0006955979623541981</v>
       </c>
       <c r="D57">
-        <v>-0.03967383174380763</v>
+        <v>0.02384535652741578</v>
       </c>
       <c r="E57">
-        <v>-0.0250550834906436</v>
+        <v>-0.01377897058567136</v>
       </c>
       <c r="F57">
-        <v>0.08327250530245819</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02676775760818297</v>
+      </c>
+      <c r="G57">
+        <v>-0.06882288873906478</v>
+      </c>
+      <c r="H57">
+        <v>0.01593376992959069</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2138117812015023</v>
+        <v>0.1594691035450763</v>
       </c>
       <c r="C58">
-        <v>0.06414382601844335</v>
+        <v>-0.08670604308827821</v>
       </c>
       <c r="D58">
-        <v>-0.132777281933717</v>
+        <v>0.114526190278614</v>
       </c>
       <c r="E58">
-        <v>-0.1238597677982354</v>
+        <v>-0.1277744528449518</v>
       </c>
       <c r="F58">
-        <v>0.2729597593050238</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.0485582070259798</v>
+      </c>
+      <c r="G58">
+        <v>-0.6635885363351103</v>
+      </c>
+      <c r="H58">
+        <v>-0.5608748468229767</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.06750960917392095</v>
+        <v>0.1077581355926149</v>
       </c>
       <c r="C59">
-        <v>0.09799182950335809</v>
+        <v>-0.05004368440010697</v>
       </c>
       <c r="D59">
-        <v>0.07010216686275667</v>
+        <v>-0.220570017627352</v>
       </c>
       <c r="E59">
-        <v>0.1384101526693316</v>
+        <v>-0.03265088243846679</v>
       </c>
       <c r="F59">
-        <v>0.05418019676717985</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.0838662217505962</v>
+      </c>
+      <c r="G59">
+        <v>-0.02664900923337246</v>
+      </c>
+      <c r="H59">
+        <v>0.02378818428890472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.165534634548848</v>
+        <v>0.1628190481516714</v>
       </c>
       <c r="C60">
-        <v>0.08000154753167769</v>
+        <v>-0.07571932255364211</v>
       </c>
       <c r="D60">
-        <v>-0.0498643577843413</v>
+        <v>-0.01161296494579882</v>
       </c>
       <c r="E60">
-        <v>0.02196277058756664</v>
+        <v>-0.0579224902265484</v>
       </c>
       <c r="F60">
-        <v>0.09373235632029213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.0619001546494152</v>
+      </c>
+      <c r="G60">
+        <v>-0.1201021827819754</v>
+      </c>
+      <c r="H60">
+        <v>0.3555240980626749</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02261363097571509</v>
+        <v>0.02429092126953318</v>
       </c>
       <c r="C61">
-        <v>0.009388455538074422</v>
+        <v>-0.01383659307233902</v>
       </c>
       <c r="D61">
-        <v>-0.01234709633421152</v>
+        <v>0.03639143215437937</v>
       </c>
       <c r="E61">
-        <v>-0.03034791882300929</v>
+        <v>0.00138121057241116</v>
       </c>
       <c r="F61">
-        <v>0.03736466583198551</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03363994283624476</v>
+      </c>
+      <c r="G61">
+        <v>-0.03019683987676542</v>
+      </c>
+      <c r="H61">
+        <v>0.03886850601407121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02111903166030416</v>
+        <v>0.01653979493312875</v>
       </c>
       <c r="C63">
-        <v>0.01670738741704678</v>
+        <v>-0.003493213308299012</v>
       </c>
       <c r="D63">
-        <v>-0.02776039938220428</v>
+        <v>0.01168609545523382</v>
       </c>
       <c r="E63">
-        <v>-0.0476958621207366</v>
+        <v>-0.0002755443503278449</v>
       </c>
       <c r="F63">
-        <v>0.02387615565083341</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02557726896746983</v>
+      </c>
+      <c r="G63">
+        <v>-0.02094457482908801</v>
+      </c>
+      <c r="H63">
+        <v>-0.005646150814864397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04958228400801188</v>
+        <v>0.04661630013728583</v>
       </c>
       <c r="C64">
-        <v>0.02402729606212877</v>
+        <v>-0.02505086336004343</v>
       </c>
       <c r="D64">
-        <v>-0.01690604811355199</v>
+        <v>0.0406303266784905</v>
       </c>
       <c r="E64">
-        <v>-0.09075416127179833</v>
+        <v>0.008196140381110665</v>
       </c>
       <c r="F64">
-        <v>0.04318518202066609</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04051591605076379</v>
+      </c>
+      <c r="G64">
+        <v>-0.01973151331057716</v>
+      </c>
+      <c r="H64">
+        <v>0.03496357657050787</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.009190752732795918</v>
+        <v>0.03625965553691357</v>
       </c>
       <c r="C65">
-        <v>-0.0003696847216893581</v>
+        <v>-0.005009498370302771</v>
       </c>
       <c r="D65">
-        <v>-0.007596586260400069</v>
+        <v>0.03430176775522861</v>
       </c>
       <c r="E65">
-        <v>0.001127302984140741</v>
+        <v>0.00393359776388824</v>
       </c>
       <c r="F65">
-        <v>0.007064847931719197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03230904700307081</v>
+      </c>
+      <c r="G65">
+        <v>0.003662878774340743</v>
+      </c>
+      <c r="H65">
+        <v>0.06034696539295137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04603848111053083</v>
+        <v>0.03766910663003394</v>
       </c>
       <c r="C66">
-        <v>0.02423016852649441</v>
+        <v>-0.01983108409171684</v>
       </c>
       <c r="D66">
-        <v>-0.03993880590443777</v>
+        <v>0.07631216565331238</v>
       </c>
       <c r="E66">
-        <v>-0.05700840216739092</v>
+        <v>-0.01184892454220222</v>
       </c>
       <c r="F66">
-        <v>0.04519133868440121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06704037951234304</v>
+      </c>
+      <c r="G66">
+        <v>-0.0416761624460146</v>
+      </c>
+      <c r="H66">
+        <v>0.06462436155616788</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0268154695725158</v>
+        <v>0.03242707524934831</v>
       </c>
       <c r="C67">
-        <v>0.009227682508592763</v>
+        <v>-0.02524762607893099</v>
       </c>
       <c r="D67">
-        <v>0.01695948304803501</v>
+        <v>-0.008834374547923513</v>
       </c>
       <c r="E67">
-        <v>0.01954096640901834</v>
+        <v>0.001097255317576872</v>
       </c>
       <c r="F67">
-        <v>0.02540483558402459</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01166820803369363</v>
+      </c>
+      <c r="G67">
+        <v>-0.0192600312038995</v>
+      </c>
+      <c r="H67">
+        <v>0.03553259687419975</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07433540869721329</v>
+        <v>0.1096708280916491</v>
       </c>
       <c r="C68">
-        <v>0.08435198586069596</v>
+        <v>-0.02718718022942359</v>
       </c>
       <c r="D68">
-        <v>0.1007984841517152</v>
+        <v>-0.2162741695941058</v>
       </c>
       <c r="E68">
-        <v>0.1918507742336449</v>
+        <v>-0.02766251342229303</v>
       </c>
       <c r="F68">
-        <v>0.02461312521526679</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1075143228606927</v>
+      </c>
+      <c r="G68">
+        <v>-0.02125740139874192</v>
+      </c>
+      <c r="H68">
+        <v>-0.0461036695013272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07228350925583629</v>
+        <v>0.0570966320768329</v>
       </c>
       <c r="C69">
-        <v>0.03589781697931906</v>
+        <v>-0.04304279363682647</v>
       </c>
       <c r="D69">
-        <v>-0.02458536741842425</v>
+        <v>0.01711083415586932</v>
       </c>
       <c r="E69">
-        <v>-0.004167228791800546</v>
+        <v>-0.008715890769771532</v>
       </c>
       <c r="F69">
-        <v>0.01477437170704484</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02791673663552631</v>
+      </c>
+      <c r="G69">
+        <v>0.004702883776804894</v>
+      </c>
+      <c r="H69">
+        <v>-0.009093707306827879</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08827576076561537</v>
+        <v>0.1065480379901826</v>
       </c>
       <c r="C71">
-        <v>0.08490797859934954</v>
+        <v>-0.03638981767669484</v>
       </c>
       <c r="D71">
-        <v>0.08066327181239814</v>
+        <v>-0.2016221095782684</v>
       </c>
       <c r="E71">
-        <v>0.2297926941649829</v>
+        <v>-0.03094034071427128</v>
       </c>
       <c r="F71">
-        <v>0.05437914252319309</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1174502458566739</v>
+      </c>
+      <c r="G71">
+        <v>-0.02565267263161095</v>
+      </c>
+      <c r="H71">
+        <v>-0.0192499361900077</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1069772991541665</v>
+        <v>0.08721698617018343</v>
       </c>
       <c r="C72">
-        <v>0.1158237311853285</v>
+        <v>-0.06707580806455775</v>
       </c>
       <c r="D72">
-        <v>-0.02969479824903786</v>
+        <v>0.05062597746492024</v>
       </c>
       <c r="E72">
-        <v>-0.06791032580750353</v>
+        <v>-0.01474676962896405</v>
       </c>
       <c r="F72">
-        <v>0.04871647074742867</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1199396966076899</v>
+      </c>
+      <c r="G72">
+        <v>-0.07656427480755326</v>
+      </c>
+      <c r="H72">
+        <v>0.1448766068909894</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2370529966711549</v>
+        <v>0.227171329250388</v>
       </c>
       <c r="C73">
-        <v>0.1123487326380165</v>
+        <v>-0.09936970115000936</v>
       </c>
       <c r="D73">
-        <v>-0.02817807152787909</v>
+        <v>0.005585908235720269</v>
       </c>
       <c r="E73">
-        <v>0.08021903912347224</v>
+        <v>-0.09110484838558337</v>
       </c>
       <c r="F73">
-        <v>0.1835478365139028</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06192524113080337</v>
+      </c>
+      <c r="G73">
+        <v>-0.1730929519998857</v>
+      </c>
+      <c r="H73">
+        <v>0.5081290233781103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1229802320030778</v>
+        <v>0.1096336258987528</v>
       </c>
       <c r="C74">
-        <v>0.03506599201240444</v>
+        <v>-0.07738008234870353</v>
       </c>
       <c r="D74">
-        <v>-0.03476627793884005</v>
+        <v>0.05743224105589517</v>
       </c>
       <c r="E74">
-        <v>-0.03576665745098901</v>
+        <v>-0.009319302463462978</v>
       </c>
       <c r="F74">
-        <v>-0.1145205056679741</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06490822689164182</v>
+      </c>
+      <c r="G74">
+        <v>0.09003418005521928</v>
+      </c>
+      <c r="H74">
+        <v>-0.001438474093699289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2218866350292148</v>
+        <v>0.2166603191552261</v>
       </c>
       <c r="C75">
-        <v>0.1089978836062506</v>
+        <v>-0.1549083828637626</v>
       </c>
       <c r="D75">
-        <v>-0.07628931660521951</v>
+        <v>0.06585684365966681</v>
       </c>
       <c r="E75">
-        <v>-0.05719561168124272</v>
+        <v>-0.03551766638299004</v>
       </c>
       <c r="F75">
-        <v>-0.1733915701690182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1277624289114398</v>
+      </c>
+      <c r="G75">
+        <v>0.1617532095804761</v>
+      </c>
+      <c r="H75">
+        <v>-0.09026566792683642</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2627776162716818</v>
+        <v>0.2089356067729525</v>
       </c>
       <c r="C76">
-        <v>0.1258737530042295</v>
+        <v>-0.1534585082386258</v>
       </c>
       <c r="D76">
-        <v>-0.01765082957145169</v>
+        <v>0.07006406784904604</v>
       </c>
       <c r="E76">
-        <v>-0.06691899462273841</v>
+        <v>0.006307833744527398</v>
       </c>
       <c r="F76">
-        <v>-0.2094258715035517</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1360108930128196</v>
+      </c>
+      <c r="G76">
+        <v>0.1811202968244226</v>
+      </c>
+      <c r="H76">
+        <v>-0.09995958462479984</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1411916115255338</v>
+        <v>0.08097773578070508</v>
       </c>
       <c r="C77">
-        <v>-0.02130883162893187</v>
+        <v>-0.03003242348982784</v>
       </c>
       <c r="D77">
-        <v>-0.06986367487153892</v>
+        <v>0.07405598283375124</v>
       </c>
       <c r="E77">
-        <v>-0.04998445624608834</v>
+        <v>-0.01530766646088863</v>
       </c>
       <c r="F77">
-        <v>0.2089099157454403</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.004351583040220458</v>
+      </c>
+      <c r="G77">
+        <v>-0.1260761474823154</v>
+      </c>
+      <c r="H77">
+        <v>-0.0498153286553101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05647943152403453</v>
+        <v>0.0397788839754989</v>
       </c>
       <c r="C78">
-        <v>0.009080165155756053</v>
+        <v>-0.02145766968530699</v>
       </c>
       <c r="D78">
-        <v>-0.04379989567418319</v>
+        <v>0.05301116421118224</v>
       </c>
       <c r="E78">
-        <v>-0.09027190304099272</v>
+        <v>0.002454031932813051</v>
       </c>
       <c r="F78">
-        <v>0.03731788904036052</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04674154327638066</v>
+      </c>
+      <c r="G78">
+        <v>-0.04943345695832388</v>
+      </c>
+      <c r="H78">
+        <v>0.03449305125250379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1962653281099192</v>
+        <v>0.1731666278691013</v>
       </c>
       <c r="C80">
-        <v>-0.1648806669653952</v>
+        <v>-0.09164044409087141</v>
       </c>
       <c r="D80">
-        <v>0.8573090285711993</v>
+        <v>0.008117638837733254</v>
       </c>
       <c r="E80">
-        <v>-0.4176216394583641</v>
+        <v>0.9616094958598839</v>
       </c>
       <c r="F80">
-        <v>0.05098936370712628</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.09306418354218761</v>
+      </c>
+      <c r="G80">
+        <v>-0.1056656552956714</v>
+      </c>
+      <c r="H80">
+        <v>0.007337674057260264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1564609957536674</v>
+        <v>0.1468157274906992</v>
       </c>
       <c r="C81">
-        <v>0.09660302413086269</v>
+        <v>-0.1052930816052437</v>
       </c>
       <c r="D81">
-        <v>-0.03362977778072909</v>
+        <v>0.04331003344050718</v>
       </c>
       <c r="E81">
-        <v>-0.05536426768012451</v>
+        <v>-0.00905812377330332</v>
       </c>
       <c r="F81">
-        <v>-0.1917542260098501</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09648749263447409</v>
+      </c>
+      <c r="G81">
+        <v>0.1200226761169521</v>
+      </c>
+      <c r="H81">
+        <v>-0.07889774449375034</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05611168198954047</v>
+        <v>0.04040691756033975</v>
       </c>
       <c r="C83">
-        <v>-0.01414932159320711</v>
+        <v>-0.01763048792839256</v>
       </c>
       <c r="D83">
-        <v>-0.04842531336922156</v>
+        <v>0.0255304909735825</v>
       </c>
       <c r="E83">
-        <v>-0.0367012667434461</v>
+        <v>-0.01446309401533628</v>
       </c>
       <c r="F83">
-        <v>0.08059662706716575</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01194876219564107</v>
+      </c>
+      <c r="G83">
+        <v>-0.05889391574458357</v>
+      </c>
+      <c r="H83">
+        <v>0.0230448485135962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2359002748507558</v>
+        <v>0.2103418054512738</v>
       </c>
       <c r="C85">
-        <v>0.093751859925421</v>
+        <v>-0.1370800341646926</v>
       </c>
       <c r="D85">
-        <v>-0.04591837959961655</v>
+        <v>0.08961196203214022</v>
       </c>
       <c r="E85">
-        <v>-0.05470682205145336</v>
+        <v>-0.02307206771066445</v>
       </c>
       <c r="F85">
-        <v>-0.1947512883686905</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1232603449388953</v>
+      </c>
+      <c r="G85">
+        <v>0.1663236675202497</v>
+      </c>
+      <c r="H85">
+        <v>-0.06419450969224327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002291846425405195</v>
+        <v>0.008816857270771935</v>
       </c>
       <c r="C86">
-        <v>-0.009292277311259376</v>
+        <v>0.001257137878855459</v>
       </c>
       <c r="D86">
-        <v>-0.02490722130206338</v>
+        <v>0.01967633055790215</v>
       </c>
       <c r="E86">
-        <v>-0.07218593602927847</v>
+        <v>-0.006599843071430281</v>
       </c>
       <c r="F86">
-        <v>0.0802853787713641</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01237215246481847</v>
+      </c>
+      <c r="G86">
+        <v>-0.07849623260269818</v>
+      </c>
+      <c r="H86">
+        <v>0.04618799853674004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02589141359986961</v>
+        <v>0.02724520649909327</v>
       </c>
       <c r="C87">
-        <v>0.01444340340546276</v>
+        <v>-0.008403810503759141</v>
       </c>
       <c r="D87">
-        <v>0.003042317922911711</v>
+        <v>0.0161739499028335</v>
       </c>
       <c r="E87">
-        <v>0.003016506227241617</v>
+        <v>-0.001736406848329895</v>
       </c>
       <c r="F87">
-        <v>0.07883925417435488</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01142671771811682</v>
+      </c>
+      <c r="G87">
+        <v>-0.08520334730052546</v>
+      </c>
+      <c r="H87">
+        <v>0.03009683794763171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0106538739884383</v>
+        <v>0.0384893113592527</v>
       </c>
       <c r="C88">
-        <v>0.01748604747426492</v>
+        <v>0.002501385124053751</v>
       </c>
       <c r="D88">
-        <v>0.01663721887759751</v>
+        <v>-0.009402116617736331</v>
       </c>
       <c r="E88">
-        <v>-0.004846624794368748</v>
+        <v>0.005102534258974809</v>
       </c>
       <c r="F88">
-        <v>0.03944710274300648</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01401525517755261</v>
+      </c>
+      <c r="G88">
+        <v>0.0003456966352426947</v>
+      </c>
+      <c r="H88">
+        <v>0.01602591926725188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1040330837597363</v>
+        <v>0.1698723195605595</v>
       </c>
       <c r="C89">
-        <v>0.1058192194009607</v>
+        <v>-0.05385539095614136</v>
       </c>
       <c r="D89">
-        <v>0.1017203484274492</v>
+        <v>-0.344059445152444</v>
       </c>
       <c r="E89">
-        <v>0.2906228430452821</v>
+        <v>-0.06712772708427009</v>
       </c>
       <c r="F89">
-        <v>0.1090795373790791</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1643466470845277</v>
+      </c>
+      <c r="G89">
+        <v>-0.01827188560268498</v>
+      </c>
+      <c r="H89">
+        <v>-0.019263507782192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09626465452904365</v>
+        <v>0.1315800566419821</v>
       </c>
       <c r="C90">
-        <v>0.1016257675888406</v>
+        <v>-0.04095828407691218</v>
       </c>
       <c r="D90">
-        <v>0.1485060304303399</v>
+        <v>-0.2967458870600286</v>
       </c>
       <c r="E90">
-        <v>0.250919815797971</v>
+        <v>-0.03776110365689524</v>
       </c>
       <c r="F90">
-        <v>0.05906585221237904</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1549968200690425</v>
+      </c>
+      <c r="G90">
+        <v>0.02066130361128533</v>
+      </c>
+      <c r="H90">
+        <v>-0.04067697656919399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2890246565935285</v>
+        <v>0.2301005197741846</v>
       </c>
       <c r="C91">
-        <v>0.09918008416837151</v>
+        <v>-0.1615581078939658</v>
       </c>
       <c r="D91">
-        <v>-0.05926776817370125</v>
+        <v>0.07757621835386357</v>
       </c>
       <c r="E91">
-        <v>-0.01853624028043401</v>
+        <v>-0.02928624813752163</v>
       </c>
       <c r="F91">
-        <v>-0.2461359733326382</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1223278363283062</v>
+      </c>
+      <c r="G91">
+        <v>0.2179562946894452</v>
+      </c>
+      <c r="H91">
+        <v>-0.1194336708233667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1621357344638437</v>
+        <v>0.1916190600284739</v>
       </c>
       <c r="C92">
-        <v>0.09617597084556169</v>
+        <v>-0.1257833523316113</v>
       </c>
       <c r="D92">
-        <v>0.1926644750310263</v>
+        <v>-0.2684879798621106</v>
       </c>
       <c r="E92">
-        <v>0.3625149980403294</v>
+        <v>-0.02801408549682846</v>
       </c>
       <c r="F92">
-        <v>0.09413260713725613</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1384555693805531</v>
+      </c>
+      <c r="G92">
+        <v>0.03491714173996679</v>
+      </c>
+      <c r="H92">
+        <v>-0.1344844522308084</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1048678906386679</v>
+        <v>0.1525877974019053</v>
       </c>
       <c r="C93">
-        <v>0.09045169018815886</v>
+        <v>-0.05513114611830584</v>
       </c>
       <c r="D93">
-        <v>0.1777400189744075</v>
+        <v>-0.3272557822910908</v>
       </c>
       <c r="E93">
-        <v>0.3588194437058127</v>
+        <v>-0.05487690580874881</v>
       </c>
       <c r="F93">
-        <v>0.02963393935873072</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.197529520003041</v>
+      </c>
+      <c r="G93">
+        <v>0.02484463520482547</v>
+      </c>
+      <c r="H93">
+        <v>0.01635025381861538</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2584301836905266</v>
+        <v>0.2483433266580993</v>
       </c>
       <c r="C94">
-        <v>0.1258988533635745</v>
+        <v>-0.1526295347704593</v>
       </c>
       <c r="D94">
-        <v>-0.02352699513180285</v>
+        <v>0.05327831087975568</v>
       </c>
       <c r="E94">
-        <v>-0.0449200940177886</v>
+        <v>-0.04188174177947375</v>
       </c>
       <c r="F94">
-        <v>-0.3112688659254452</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1347926131596212</v>
+      </c>
+      <c r="G94">
+        <v>0.2400008766794279</v>
+      </c>
+      <c r="H94">
+        <v>-0.1282517641193883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1077055322490701</v>
+        <v>0.07239811774777263</v>
       </c>
       <c r="C95">
-        <v>0.01035913099515775</v>
+        <v>-0.05392587367975862</v>
       </c>
       <c r="D95">
-        <v>-0.1030347133615072</v>
+        <v>0.08114839932254683</v>
       </c>
       <c r="E95">
-        <v>-0.08778492171345188</v>
+        <v>-0.07865590643223554</v>
       </c>
       <c r="F95">
-        <v>0.08065145280406485</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03000700872940344</v>
+      </c>
+      <c r="G95">
+        <v>-0.07783635656960773</v>
+      </c>
+      <c r="H95">
+        <v>0.01579921804087998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1837123801564903</v>
+        <v>0.1658392851992029</v>
       </c>
       <c r="C98">
-        <v>0.05612744001588978</v>
+        <v>-0.1064648007406157</v>
       </c>
       <c r="D98">
-        <v>-0.0269890165226695</v>
+        <v>0.004301613235290549</v>
       </c>
       <c r="E98">
-        <v>0.07900742269195646</v>
+        <v>-0.06297182021675117</v>
       </c>
       <c r="F98">
-        <v>0.07933180471130404</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02178060149595504</v>
+      </c>
+      <c r="G98">
+        <v>-0.1507371619510281</v>
+      </c>
+      <c r="H98">
+        <v>0.3604155234848471</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007736829513011811</v>
+        <v>0.01554713697444545</v>
       </c>
       <c r="C101">
-        <v>0.02388470495824182</v>
+        <v>-0.004358577916944093</v>
       </c>
       <c r="D101">
-        <v>-0.03729894916911374</v>
+        <v>0.0107680462821732</v>
       </c>
       <c r="E101">
-        <v>-0.1032302047082576</v>
+        <v>0.00229284652566039</v>
       </c>
       <c r="F101">
-        <v>0.1655177690679271</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03921768593754775</v>
+      </c>
+      <c r="G101">
+        <v>-0.09707849339963125</v>
+      </c>
+      <c r="H101">
+        <v>-0.06815625961922117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1029436038249092</v>
+        <v>0.1092379394397031</v>
       </c>
       <c r="C102">
-        <v>0.02616397405856828</v>
+        <v>-0.06342153829577218</v>
       </c>
       <c r="D102">
-        <v>-0.03141747815426677</v>
+        <v>0.04778461626805927</v>
       </c>
       <c r="E102">
-        <v>-0.07557711089433304</v>
+        <v>-0.005575200424595741</v>
       </c>
       <c r="F102">
-        <v>-0.1347707578105019</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06721169436114714</v>
+      </c>
+      <c r="G102">
+        <v>0.1008157185344846</v>
+      </c>
+      <c r="H102">
+        <v>-0.06108818269109866</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02685207327190992</v>
+        <v>0.02260555851521171</v>
       </c>
       <c r="C103">
-        <v>0.007308561706891955</v>
+        <v>-0.01408650885198275</v>
       </c>
       <c r="D103">
-        <v>-0.009344161224242687</v>
+        <v>0.01195433645326697</v>
       </c>
       <c r="E103">
-        <v>-0.01016394550613523</v>
+        <v>0.00622990539890527</v>
       </c>
       <c r="F103">
-        <v>-0.02645794184585373</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01534610141682972</v>
+      </c>
+      <c r="G103">
+        <v>0.01056356911565044</v>
+      </c>
+      <c r="H103">
+        <v>-0.008346393396203565</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.4594948132018555</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8654143124003113</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.03713796527971454</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.01953767856367861</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1628959428517204</v>
+      </c>
+      <c r="G104">
+        <v>0.04100273921381095</v>
+      </c>
+      <c r="H104">
+        <v>-0.03462698100319286</v>
       </c>
     </row>
   </sheetData>
